--- a/ValueSet-us-core-clinical-note-type.xlsx
+++ b/ValueSet-us-core-clinical-note-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>11504-8</t>
+  </si>
+  <si>
+    <t>34111-5</t>
   </si>
   <si>
     <t/>
@@ -393,7 +396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -469,16 +472,22 @@
       <c r="A11" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>37</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
         <v>39</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-us-core-clinical-note-type.xlsx
+++ b/ValueSet-us-core-clinical-note-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>34111-5</t>
+  </si>
+  <si>
+    <t>42348-3</t>
   </si>
   <si>
     <t/>
@@ -396,7 +399,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -478,16 +481,22 @@
       <c r="A12" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>40</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-us-core-clinical-note-type.xlsx
+++ b/ValueSet-us-core-clinical-note-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -75,6 +75,12 @@
     <t>null (mailto:ehaas@healthedatainc.com)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -130,9 +136,6 @@
   </si>
   <si>
     <t>42348-3</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -272,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -374,15 +377,15 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -390,6 +393,14 @@
       </c>
       <c r="B14" t="s" s="2">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -411,92 +422,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-us-core-clinical-note-type.xlsx
+++ b/ValueSet-us-core-clinical-note-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -66,76 +66,82 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Health eData Inc</t>
+    <t>HL7 International / Cross-Group Projects</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>null (mailto:ehaas@healthedatainc.com)</t>
+    <t>HL7 International / Cross-Group Projects (http://www.hl7.org/Special/committees/cgp, cgp@lists.HL7.org)</t>
+  </si>
+  <si>
+    <t>Health eData Inc (mailto:ehaas@healthedatainc.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The US Core Clinical Note Type Value Set is a 'starter set' of types supported for fetching and storing clinical notes.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>18842-5</t>
+  </si>
+  <si>
+    <t>11488-4</t>
+  </si>
+  <si>
+    <t>34117-2</t>
+  </si>
+  <si>
+    <t>11506-3</t>
+  </si>
+  <si>
+    <t>28570-0</t>
+  </si>
+  <si>
+    <t>18748-4</t>
+  </si>
+  <si>
+    <t>11502-2</t>
+  </si>
+  <si>
+    <t>11526-1</t>
+  </si>
+  <si>
+    <t>11504-8</t>
+  </si>
+  <si>
+    <t>34111-5</t>
+  </si>
+  <si>
+    <t>42348-3</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>The US Core Clinical Note Type Value Set is a 'starter set' of types supported for fetching and storing clinical notes.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>18842-5</t>
-  </si>
-  <si>
-    <t>11488-4</t>
-  </si>
-  <si>
-    <t>34117-2</t>
-  </si>
-  <si>
-    <t>11506-3</t>
-  </si>
-  <si>
-    <t>28570-0</t>
-  </si>
-  <si>
-    <t>18748-4</t>
-  </si>
-  <si>
-    <t>11502-2</t>
-  </si>
-  <si>
-    <t>11526-1</t>
-  </si>
-  <si>
-    <t>11504-8</t>
-  </si>
-  <si>
-    <t>34111-5</t>
-  </si>
-  <si>
-    <t>42348-3</t>
   </si>
   <si>
     <t>System URI</t>
@@ -275,7 +281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -367,40 +373,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B15" t="s" s="2">
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>28</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -422,92 +436,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-us-core-clinical-note-type.xlsx
+++ b/ValueSet-us-core-clinical-note-type.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/ValueSet-us-core-clinical-note-type.xlsx
+++ b/ValueSet-us-core-clinical-note-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>34111-5</t>
-  </si>
-  <si>
-    <t>42348-3</t>
   </si>
   <si>
     <t/>
@@ -424,7 +421,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -506,22 +503,16 @@
       <c r="A12" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
